--- a/Client/Assets/Mods/X/Common/Config/Objects.xlsx
+++ b/Client/Assets/Mods/X/Common/Config/Objects.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="124">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -455,15 +455,59 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Icons/ice_cube_1.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>ice_cube_1Collider</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Icons/ice_cube_1.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.0</t>
+    <t>SandCube1</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sand</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X/Common/Objects/Sand/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sand_cube_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sand_cube_1Collider</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Icons/sand_cube_1.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SandCube2</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>SandCube2</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>cactus_block_top</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cactus_block_topCollider</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Icons/sand_cube_1.png</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -981,10 +1025,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T23"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="P22" sqref="P22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.15"/>
@@ -997,8 +1041,8 @@
     <col min="10" max="10" width="14" style="7" customWidth="1"/>
     <col min="11" max="12" width="24.25" style="7" customWidth="1"/>
     <col min="13" max="13" width="27.25" style="7" customWidth="1"/>
-    <col min="14" max="14" width="14" style="7" customWidth="1"/>
-    <col min="15" max="15" width="19.125" style="7" customWidth="1"/>
+    <col min="14" max="14" width="23.75" style="7" customWidth="1"/>
+    <col min="15" max="15" width="22.125" style="7" customWidth="1"/>
     <col min="16" max="16" width="22.625" style="7" customWidth="1"/>
     <col min="17" max="17" width="25.5" style="7" customWidth="1"/>
     <col min="18" max="18" width="12.75" style="7" customWidth="1"/>
@@ -1819,44 +1863,130 @@
         <v>109</v>
       </c>
       <c r="O21" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="P21" s="4" t="s">
         <v>110</v>
-      </c>
-      <c r="P21" s="4" t="s">
-        <v>111</v>
       </c>
       <c r="Q21" s="4"/>
       <c r="R21" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="S21" s="2" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="1"/>
+      <c r="B22" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="C22" s="17"/>
+      <c r="D22" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="E22" s="3"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="I22" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="J22" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="K22" s="22"/>
+      <c r="L22" s="22"/>
+      <c r="M22" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="N22" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="O22" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="P22" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q22" s="4"/>
+      <c r="R22" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="S22" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A23" s="1"/>
+      <c r="B23" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="C23" s="17"/>
+      <c r="D23" s="22" t="s">
+        <v>120</v>
+      </c>
+      <c r="E23" s="3"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="I23" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="J23" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="K23" s="22"/>
+      <c r="L23" s="22"/>
+      <c r="M23" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="N23" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="O23" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="P23" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q23" s="4"/>
+      <c r="R23" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="S23" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A24" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B22" s="1"/>
-      <c r="C22" s="21"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
-      <c r="M22" s="1"/>
-      <c r="N22" s="1"/>
-      <c r="O22" s="1"/>
-      <c r="P22" s="1"/>
-      <c r="Q22" s="1"/>
-      <c r="R22" s="1"/>
-      <c r="S22" s="1"/>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="C23" s="13"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="1"/>
+      <c r="R24" s="1"/>
+      <c r="S24" s="1"/>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="C25" s="13"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Client/Assets/Mods/X/Common/Config/Objects.xlsx
+++ b/Client/Assets/Mods/X/Common/Config/Objects.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="154">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -340,10 +340,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>End</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Box1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -404,110 +400,234 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
+    <t>Barrels1</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Barrels</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>X/Common/Objects/Barrels/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cork_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GrassFloorCollider</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cork_1Collider</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Icons/cork_1.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Group</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ice1</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Snow</t>
+  </si>
+  <si>
+    <t>X/Common/Objects/Snow/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ice_cube_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Icons/ice_cube_1.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ice_cube_1Collider</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SandCube1</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sand</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X/Common/Objects/Sand/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sand_cube_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sand_cube_1Collider</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Icons/sand_cube_1.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SandCube2</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>SandCube2</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>cactus_block_top</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cactus_block_topCollider</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sand</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>woodcube4</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wood</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X/Common/Objects/Wood/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wood_cube_4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wood_cube_4Collider</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Icons/sand_cube_1.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Icons/wood_cube_4.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ladderwood</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>ladderwood</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
     <t>Other</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Barrels1</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>Barrels</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>X/Common/Objects/Barrels/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cork_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GrassFloorCollider</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cork_1Collider</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Icons/cork_1.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Group</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ice1</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>Snow</t>
-  </si>
-  <si>
-    <t>X/Common/Objects/Snow/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ice_cube_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Icons/ice_cube_1.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ice_cube_1Collider</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SandCube1</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sand</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>X/Common/Objects/Sand/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sand_cube_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sand_cube_1Collider</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Icons/sand_cube_1.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SandCube2</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>SandCube2</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>cactus_block_top</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cactus_block_topCollider</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Icons/sand_cube_1.png</t>
+    <t>Other</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>ladder_wood</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ladder_woodCollider</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Icons/ladder_wood.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cube</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wood</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>woodcube1</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>woodcube1</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cube</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>wood_cube_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wood_cube_1Collider</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Icons/wood_cube_1.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>woodcubelight2</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>woodcubelight2</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>wood_cube_light_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wood_cube_light_2Collider</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Icons/wood_cube_light_2.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wooddecotop1</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>wooddecotop1</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>wood_deco_top_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wood_deco_top_1Collider</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Icons/wood_deco_top_1.png</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -646,7 +766,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -686,9 +806,6 @@
     <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -708,9 +825,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1025,10 +1139,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="P22" sqref="P22"/>
+    <sheetView tabSelected="1" topLeftCell="H10" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.15"/>
@@ -1055,7 +1169,7 @@
         <v>3</v>
       </c>
       <c r="B1" s="1"/>
-      <c r="C1" s="17"/>
+      <c r="C1" s="16"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
@@ -1078,7 +1192,7 @@
         <v>8</v>
       </c>
       <c r="B2" s="1"/>
-      <c r="C2" s="17"/>
+      <c r="C2" s="16"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -1101,7 +1215,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1"/>
-      <c r="C3" s="17"/>
+      <c r="C3" s="16"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -1126,7 +1240,7 @@
       <c r="B4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="18"/>
+      <c r="C4" s="17"/>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
@@ -1147,14 +1261,14 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:20" s="14" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="15" t="s">
+    <row r="5" spans="1:20" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="14" t="s">
         <v>13</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="18" t="s">
         <v>18</v>
       </c>
       <c r="D5" s="6"/>
@@ -1173,32 +1287,32 @@
       <c r="Q5" s="6"/>
       <c r="R5" s="6"/>
       <c r="S5" s="6"/>
-      <c r="T5" s="16" t="s">
+      <c r="T5" s="15" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="19"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="18"/>
-      <c r="L6" s="18"/>
-      <c r="M6" s="18"/>
-      <c r="N6" s="18"/>
-      <c r="O6" s="18"/>
-      <c r="P6" s="18"/>
-      <c r="Q6" s="18"/>
-      <c r="R6" s="19"/>
-      <c r="S6" s="18"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="17"/>
+      <c r="N6" s="17"/>
+      <c r="O6" s="17"/>
+      <c r="P6" s="17"/>
+      <c r="Q6" s="17"/>
+      <c r="R6" s="18"/>
+      <c r="S6" s="17"/>
       <c r="T6" s="8" t="s">
         <v>11</v>
       </c>
@@ -1208,20 +1322,20 @@
         <v>15</v>
       </c>
       <c r="B7" s="5"/>
-      <c r="C7" s="18"/>
+      <c r="C7" s="17"/>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
-      <c r="H7" s="23" t="s">
+      <c r="H7" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="I7" s="23" t="s">
-        <v>94</v>
+      <c r="I7" s="21" t="s">
+        <v>93</v>
       </c>
       <c r="J7" s="5"/>
-      <c r="K7" s="23"/>
-      <c r="L7" s="23"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="21"/>
       <c r="M7" s="5"/>
       <c r="N7" s="5"/>
       <c r="O7" s="5"/>
@@ -1238,7 +1352,7 @@
         <v>20</v>
       </c>
       <c r="B8" s="5"/>
-      <c r="C8" s="18"/>
+      <c r="C8" s="17"/>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
@@ -1266,7 +1380,7 @@
       <c r="B9" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="19" t="s">
+      <c r="C9" s="18" t="s">
         <v>16</v>
       </c>
       <c r="D9" s="6" t="s">
@@ -1328,7 +1442,7 @@
       <c r="B10" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="C10" s="20" t="s">
+      <c r="C10" s="19" t="s">
         <v>17</v>
       </c>
       <c r="D10" s="12" t="s">
@@ -1347,10 +1461,10 @@
         <v>7</v>
       </c>
       <c r="I10" s="12" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="J10" s="12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K10" s="12" t="s">
         <v>49</v>
@@ -1385,31 +1499,31 @@
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A11" s="1"/>
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="C11" s="17"/>
-      <c r="D11" s="22" t="s">
-        <v>92</v>
+      <c r="C11" s="16"/>
+      <c r="D11" s="20" t="s">
+        <v>91</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>66</v>
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
-      <c r="H11" s="22" t="s">
-        <v>87</v>
-      </c>
-      <c r="I11" s="22" t="s">
-        <v>95</v>
+      <c r="H11" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="I11" s="20" t="s">
+        <v>94</v>
       </c>
       <c r="J11" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="K11" s="22" t="s">
+      <c r="K11" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="L11" s="22" t="s">
+      <c r="L11" s="20" t="s">
         <v>52</v>
       </c>
       <c r="M11" s="4" t="s">
@@ -1434,11 +1548,11 @@
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A12" s="1"/>
-      <c r="B12" s="22" t="s">
+      <c r="B12" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="C12" s="17"/>
-      <c r="D12" s="22" t="s">
+      <c r="C12" s="16"/>
+      <c r="D12" s="20" t="s">
         <v>65</v>
       </c>
       <c r="E12" s="3" t="s">
@@ -1446,19 +1560,19 @@
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
-      <c r="H12" s="22" t="s">
-        <v>87</v>
-      </c>
-      <c r="I12" s="22" t="s">
-        <v>95</v>
+      <c r="H12" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="I12" s="20" t="s">
+        <v>94</v>
       </c>
       <c r="J12" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="K12" s="22" t="s">
+      <c r="K12" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="L12" s="22" t="s">
+      <c r="L12" s="20" t="s">
         <v>52</v>
       </c>
       <c r="M12" s="4" t="s">
@@ -1483,11 +1597,11 @@
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A13" s="1"/>
-      <c r="B13" s="22" t="s">
+      <c r="B13" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="17"/>
-      <c r="D13" s="22" t="s">
+      <c r="C13" s="16"/>
+      <c r="D13" s="20" t="s">
         <v>21</v>
       </c>
       <c r="E13" s="3" t="s">
@@ -1495,19 +1609,19 @@
       </c>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
-      <c r="H13" s="22" t="s">
+      <c r="H13" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="I13" s="22" t="s">
-        <v>95</v>
+      <c r="I13" s="20" t="s">
+        <v>94</v>
       </c>
       <c r="J13" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="K13" s="22" t="s">
+      <c r="K13" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="L13" s="22" t="s">
+      <c r="L13" s="20" t="s">
         <v>52</v>
       </c>
       <c r="M13" s="4" t="s">
@@ -1517,7 +1631,7 @@
         <v>59</v>
       </c>
       <c r="O13" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="P13" s="4" t="s">
         <v>58</v>
@@ -1535,7 +1649,7 @@
       <c r="B14" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="17"/>
+      <c r="C14" s="16"/>
       <c r="D14" s="2" t="s">
         <v>22</v>
       </c>
@@ -1544,19 +1658,19 @@
       </c>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
-      <c r="H14" s="22" t="s">
+      <c r="H14" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="I14" s="22" t="s">
-        <v>95</v>
+      <c r="I14" s="20" t="s">
+        <v>94</v>
       </c>
       <c r="J14" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="K14" s="22" t="s">
+      <c r="K14" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="L14" s="22" t="s">
+      <c r="L14" s="20" t="s">
         <v>52</v>
       </c>
       <c r="M14" s="4" t="s">
@@ -1566,7 +1680,7 @@
         <v>60</v>
       </c>
       <c r="O14" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P14" s="4" t="s">
         <v>69</v>
@@ -1582,33 +1696,33 @@
     <row r="15" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A15" s="1"/>
       <c r="B15" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C15" s="16"/>
+      <c r="D15" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C15" s="17"/>
-      <c r="D15" s="2" t="s">
+      <c r="E15" s="3" t="s">
         <v>85</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>86</v>
       </c>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
-      <c r="H15" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="I15" s="22" t="s">
-        <v>95</v>
+      <c r="H15" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="I15" s="20" t="s">
+        <v>94</v>
       </c>
       <c r="J15" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="K15" s="22"/>
-      <c r="L15" s="22"/>
+      <c r="K15" s="20"/>
+      <c r="L15" s="20"/>
       <c r="M15" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="N15" s="4" t="s">
         <v>89</v>
-      </c>
-      <c r="N15" s="4" t="s">
-        <v>90</v>
       </c>
       <c r="O15" s="4"/>
       <c r="P15" s="4" t="s">
@@ -1625,7 +1739,7 @@
       <c r="B16" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C16" s="17"/>
+      <c r="C16" s="16"/>
       <c r="D16" s="2" t="s">
         <v>35</v>
       </c>
@@ -1634,25 +1748,25 @@
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
-      <c r="H16" s="22" t="s">
+      <c r="H16" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="I16" s="22" t="s">
-        <v>95</v>
+      <c r="I16" s="20" t="s">
+        <v>94</v>
       </c>
       <c r="J16" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="K16" s="22"/>
-      <c r="L16" s="22"/>
+      <c r="K16" s="20"/>
+      <c r="L16" s="20"/>
       <c r="M16" s="4" t="s">
         <v>56</v>
       </c>
       <c r="N16" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="O16" s="4" t="s">
         <v>82</v>
-      </c>
-      <c r="O16" s="4" t="s">
-        <v>83</v>
       </c>
       <c r="P16" s="4" t="s">
         <v>53</v>
@@ -1668,7 +1782,7 @@
       <c r="B17" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="17"/>
+      <c r="C17" s="16"/>
       <c r="D17" s="2" t="s">
         <v>36</v>
       </c>
@@ -1677,17 +1791,17 @@
       </c>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
-      <c r="H17" s="22" t="s">
+      <c r="H17" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="I17" s="22" t="s">
-        <v>95</v>
+      <c r="I17" s="20" t="s">
+        <v>94</v>
       </c>
       <c r="J17" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="K17" s="22"/>
-      <c r="L17" s="22"/>
+      <c r="K17" s="20"/>
+      <c r="L17" s="20"/>
       <c r="M17" s="4" t="s">
         <v>57</v>
       </c>
@@ -1695,7 +1809,7 @@
         <v>54</v>
       </c>
       <c r="O17" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="P17" s="4" t="s">
         <v>45</v>
@@ -1711,7 +1825,7 @@
       <c r="B18" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C18" s="17"/>
+      <c r="C18" s="16"/>
       <c r="D18" s="2" t="s">
         <v>37</v>
       </c>
@@ -1720,17 +1834,17 @@
       </c>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
-      <c r="H18" s="22" t="s">
+      <c r="H18" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="I18" s="22" t="s">
-        <v>95</v>
+      <c r="I18" s="20" t="s">
+        <v>94</v>
       </c>
       <c r="J18" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="K18" s="22"/>
-      <c r="L18" s="22"/>
+      <c r="K18" s="20"/>
+      <c r="L18" s="20"/>
       <c r="M18" s="4" t="s">
         <v>44</v>
       </c>
@@ -1738,7 +1852,7 @@
         <v>37</v>
       </c>
       <c r="O18" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="P18" s="4" t="s">
         <v>45</v>
@@ -1754,7 +1868,7 @@
       <c r="B19" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="17"/>
+      <c r="C19" s="16"/>
       <c r="D19" s="2" t="s">
         <v>38</v>
       </c>
@@ -1763,17 +1877,17 @@
       </c>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
-      <c r="H19" s="22" t="s">
+      <c r="H19" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="I19" s="22" t="s">
-        <v>95</v>
+      <c r="I19" s="20" t="s">
+        <v>94</v>
       </c>
       <c r="J19" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="K19" s="22"/>
-      <c r="L19" s="22"/>
+      <c r="K19" s="20"/>
+      <c r="L19" s="20"/>
       <c r="M19" s="4" t="s">
         <v>44</v>
       </c>
@@ -1781,7 +1895,7 @@
         <v>55</v>
       </c>
       <c r="O19" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="P19" s="4" t="s">
         <v>45</v>
@@ -1792,38 +1906,38 @@
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A20" s="1"/>
-      <c r="B20" s="22" t="s">
-        <v>98</v>
-      </c>
-      <c r="C20" s="17"/>
-      <c r="D20" s="22" t="s">
+      <c r="B20" s="20" t="s">
         <v>96</v>
+      </c>
+      <c r="C20" s="16"/>
+      <c r="D20" s="20" t="s">
+        <v>95</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
-      <c r="H20" s="22" t="s">
+      <c r="H20" s="20" t="s">
+        <v>131</v>
+      </c>
+      <c r="I20" s="20" t="s">
         <v>97</v>
-      </c>
-      <c r="I20" s="22" t="s">
-        <v>99</v>
       </c>
       <c r="J20" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="K20" s="22"/>
-      <c r="L20" s="22"/>
+      <c r="K20" s="20"/>
+      <c r="L20" s="20"/>
       <c r="M20" s="4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="N20" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="O20" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="O20" s="4" t="s">
-        <v>103</v>
-      </c>
       <c r="P20" s="4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="Q20" s="4"/>
       <c r="R20" s="2" t="s">
@@ -1835,42 +1949,42 @@
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A21" s="1"/>
-      <c r="B21" s="22" t="s">
-        <v>106</v>
-      </c>
-      <c r="C21" s="17"/>
-      <c r="D21" s="22" t="s">
-        <v>106</v>
+      <c r="B21" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="C21" s="16"/>
+      <c r="D21" s="20" t="s">
+        <v>104</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
-      <c r="H21" s="22" t="s">
+      <c r="H21" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="I21" s="22" t="s">
-        <v>107</v>
+      <c r="I21" s="20" t="s">
+        <v>105</v>
       </c>
       <c r="J21" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="K21" s="22"/>
-      <c r="L21" s="22"/>
+      <c r="K21" s="20"/>
+      <c r="L21" s="20"/>
       <c r="M21" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="N21" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="O21" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="P21" s="4" t="s">
         <v>108</v>
-      </c>
-      <c r="N21" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="O21" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="P21" s="4" t="s">
-        <v>110</v>
       </c>
       <c r="Q21" s="4"/>
       <c r="R21" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="S21" s="2" t="s">
         <v>31</v>
@@ -1878,42 +1992,42 @@
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A22" s="1"/>
-      <c r="B22" s="22" t="s">
-        <v>113</v>
-      </c>
-      <c r="C22" s="17"/>
-      <c r="D22" s="22" t="s">
-        <v>113</v>
+      <c r="B22" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="C22" s="16"/>
+      <c r="D22" s="20" t="s">
+        <v>111</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
-      <c r="H22" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="I22" s="22" t="s">
-        <v>114</v>
+      <c r="H22" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="I22" s="20" t="s">
+        <v>112</v>
       </c>
       <c r="J22" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="K22" s="22"/>
-      <c r="L22" s="22"/>
+      <c r="K22" s="20"/>
+      <c r="L22" s="20"/>
       <c r="M22" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="N22" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="O22" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="N22" s="4" t="s">
+      <c r="P22" s="4" t="s">
         <v>116</v>
-      </c>
-      <c r="O22" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="P22" s="4" t="s">
-        <v>118</v>
       </c>
       <c r="Q22" s="4"/>
       <c r="R22" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="S22" s="2" t="s">
         <v>31</v>
@@ -1921,72 +2035,266 @@
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A23" s="1"/>
-      <c r="B23" s="22" t="s">
-        <v>119</v>
-      </c>
-      <c r="C23" s="17"/>
-      <c r="D23" s="22" t="s">
-        <v>120</v>
+      <c r="B23" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="C23" s="16"/>
+      <c r="D23" s="20" t="s">
+        <v>118</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
-      <c r="H23" s="22" t="s">
+      <c r="H23" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="I23" s="22" t="s">
-        <v>114</v>
+      <c r="I23" s="20" t="s">
+        <v>121</v>
       </c>
       <c r="J23" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="K23" s="22"/>
-      <c r="L23" s="22"/>
+      <c r="K23" s="20"/>
+      <c r="L23" s="20"/>
       <c r="M23" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="N23" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="O23" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="P23" s="4" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="Q23" s="4"/>
       <c r="R23" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="S23" s="2" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A24" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B24" s="1"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
-      <c r="L24" s="1"/>
-      <c r="M24" s="1"/>
-      <c r="N24" s="1"/>
-      <c r="O24" s="1"/>
-      <c r="P24" s="1"/>
-      <c r="Q24" s="1"/>
-      <c r="R24" s="1"/>
-      <c r="S24" s="1"/>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="C25" s="13"/>
+      <c r="A24" s="1"/>
+      <c r="B24" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="C24" s="16"/>
+      <c r="D24" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="E24" s="3"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="I24" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="J24" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="K24" s="20"/>
+      <c r="L24" s="20"/>
+      <c r="M24" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="N24" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="O24" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="P24" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q24" s="4"/>
+      <c r="R24" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="S24" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="1"/>
+      <c r="B25" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="C25" s="16"/>
+      <c r="D25" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="E25" s="3"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="I25" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="J25" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="K25" s="20"/>
+      <c r="L25" s="20"/>
+      <c r="M25" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="N25" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="O25" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="P25" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q25" s="4"/>
+      <c r="R25" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="S25" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="1"/>
+      <c r="B26" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="C26" s="16"/>
+      <c r="D26" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="E26" s="3"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="I26" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="J26" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="K26" s="20"/>
+      <c r="L26" s="20"/>
+      <c r="M26" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="N26" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="O26" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="P26" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q26" s="4"/>
+      <c r="R26" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="S26" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="1"/>
+      <c r="B27" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="C27" s="16"/>
+      <c r="D27" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="E27" s="3"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="I27" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="J27" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="K27" s="20"/>
+      <c r="L27" s="20"/>
+      <c r="M27" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="N27" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="O27" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="P27" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q27" s="4"/>
+      <c r="R27" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="S27" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="1"/>
+      <c r="B28" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="C28" s="16"/>
+      <c r="D28" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="E28" s="3"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="I28" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="J28" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="K28" s="20"/>
+      <c r="L28" s="20"/>
+      <c r="M28" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="N28" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="O28" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="P28" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q28" s="4"/>
+      <c r="R28" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="S28" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A29" s="8" t="s">
+        <v>11</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Client/Assets/Mods/X/Common/Config/Objects.xlsx
+++ b/Client/Assets/Mods/X/Common/Config/Objects.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="155">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -352,282 +352,286 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>玩家位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>InternalCube</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
     <t>PlayerPosition</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>玩家位置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>InternalCube</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>X/Common/Objects/Utility/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MagicBlocksCollider</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>InternalPlain</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dynamic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Utility.ObjectGroup</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Barrels1</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Barrels1</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Barrels</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>X/Common/Objects/Barrels/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cork_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GrassFloorCollider</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cork_1Collider</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Icons/cork_1.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Group</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ice1</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Snow</t>
+  </si>
+  <si>
+    <t>X/Common/Objects/Snow/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ice_cube_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Icons/ice_cube_1.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ice_cube_1Collider</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SandCube1</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sand</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X/Common/Objects/Sand/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sand_cube_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sand_cube_1Collider</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Icons/sand_cube_1.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SandCube2</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>SandCube2</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>cactus_block_top</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cactus_block_topCollider</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sand</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>woodcube4</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wood</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X/Common/Objects/Wood/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wood_cube_4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wood_cube_4Collider</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Icons/sand_cube_1.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Icons/wood_cube_4.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ladderwood</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>ladderwood</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Other</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Other</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>ladder_wood</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ladder_woodCollider</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Icons/ladder_wood.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cube</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wood</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>woodcube1</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>woodcube1</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cube</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>wood_cube_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wood_cube_1Collider</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Icons/wood_cube_1.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>woodcubelight2</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>woodcubelight2</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>wood_cube_light_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wood_cube_light_2Collider</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Icons/wood_cube_light_2.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wooddecotop1</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>wooddecotop1</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>wood_deco_top_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wood_deco_top_1Collider</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Icons/wood_deco_top_1.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>PlayerPosition</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>X/Common/Objects/Utility/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PlayerPosition</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MagicBlocksCollider</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>InternalPlain</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dynamic</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Utility.ObjectGroup</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>Test</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>Barrels1</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>Barrels1</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>Barrels</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>X/Common/Objects/Barrels/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cork_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GrassFloorCollider</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cork_1Collider</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Icons/cork_1.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Group</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ice1</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>Snow</t>
-  </si>
-  <si>
-    <t>X/Common/Objects/Snow/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ice_cube_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Icons/ice_cube_1.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ice_cube_1Collider</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SandCube1</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sand</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>X/Common/Objects/Sand/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sand_cube_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sand_cube_1Collider</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Icons/sand_cube_1.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SandCube2</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>SandCube2</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>cactus_block_top</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cactus_block_topCollider</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sand</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>woodcube4</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>Wood</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>X/Common/Objects/Wood/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wood_cube_4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wood_cube_4Collider</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Icons/sand_cube_1.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Icons/wood_cube_4.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ladderwood</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>ladderwood</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>Other</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Other</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>ladder_wood</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ladder_woodCollider</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Icons/ladder_wood.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cube</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>Wood</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>woodcube1</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>woodcube1</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cube</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>wood_cube_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wood_cube_1Collider</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Icons/wood_cube_1.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>woodcubelight2</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>woodcubelight2</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>wood_cube_light_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wood_cube_light_2Collider</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Icons/wood_cube_light_2.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wooddecotop1</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>wooddecotop1</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>wood_deco_top_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wood_deco_top_1Collider</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Icons/wood_deco_top_1.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Icons/PlayerPosition.png</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1141,8 +1145,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H10" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.15"/>
@@ -1331,7 +1335,7 @@
         <v>33</v>
       </c>
       <c r="I7" s="21" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J7" s="5"/>
       <c r="K7" s="21"/>
@@ -1461,10 +1465,10 @@
         <v>7</v>
       </c>
       <c r="I10" s="12" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="J10" s="12" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="K10" s="12" t="s">
         <v>49</v>
@@ -1498,13 +1502,15 @@
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A11" s="1"/>
+      <c r="A11" s="1" t="s">
+        <v>152</v>
+      </c>
       <c r="B11" s="20" t="s">
         <v>63</v>
       </c>
       <c r="C11" s="16"/>
       <c r="D11" s="20" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>66</v>
@@ -1512,10 +1518,10 @@
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
       <c r="H11" s="20" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I11" s="20" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J11" s="4" t="s">
         <v>77</v>
@@ -1547,7 +1553,9 @@
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A12" s="1"/>
+      <c r="A12" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="B12" s="20" t="s">
         <v>65</v>
       </c>
@@ -1561,10 +1569,10 @@
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
       <c r="H12" s="20" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I12" s="20" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J12" s="4" t="s">
         <v>74</v>
@@ -1596,7 +1604,9 @@
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A13" s="1"/>
+      <c r="A13" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="B13" s="20" t="s">
         <v>21</v>
       </c>
@@ -1613,7 +1623,7 @@
         <v>34</v>
       </c>
       <c r="I13" s="20" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J13" s="4" t="s">
         <v>74</v>
@@ -1631,7 +1641,7 @@
         <v>59</v>
       </c>
       <c r="O13" s="4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="P13" s="4" t="s">
         <v>58</v>
@@ -1645,7 +1655,9 @@
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A14" s="1"/>
+      <c r="A14" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="B14" s="2" t="s">
         <v>22</v>
       </c>
@@ -1662,7 +1674,7 @@
         <v>34</v>
       </c>
       <c r="I14" s="20" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J14" s="4" t="s">
         <v>74</v>
@@ -1680,7 +1692,7 @@
         <v>60</v>
       </c>
       <c r="O14" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="P14" s="4" t="s">
         <v>69</v>
@@ -1695,23 +1707,21 @@
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A15" s="1"/>
-      <c r="B15" s="2" t="s">
-        <v>83</v>
+      <c r="B15" s="20" t="s">
+        <v>102</v>
       </c>
       <c r="C15" s="16"/>
-      <c r="D15" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>85</v>
-      </c>
+      <c r="D15" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="E15" s="3"/>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
       <c r="H15" s="20" t="s">
-        <v>87</v>
+        <v>34</v>
       </c>
       <c r="I15" s="20" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="J15" s="4" t="s">
         <v>74</v>
@@ -1719,40 +1729,44 @@
       <c r="K15" s="20"/>
       <c r="L15" s="20"/>
       <c r="M15" s="4" t="s">
-        <v>88</v>
+        <v>104</v>
       </c>
       <c r="N15" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="O15" s="4"/>
+        <v>105</v>
+      </c>
+      <c r="O15" s="4" t="s">
+        <v>108</v>
+      </c>
       <c r="P15" s="4" t="s">
-        <v>45</v>
+        <v>106</v>
       </c>
       <c r="Q15" s="4"/>
-      <c r="R15" s="2"/>
-      <c r="S15" s="2"/>
+      <c r="R15" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="S15" s="2" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A16" s="1" t="s">
-        <v>78</v>
-      </c>
+      <c r="A16" s="1"/>
       <c r="B16" s="2" t="s">
-        <v>35</v>
+        <v>83</v>
       </c>
       <c r="C16" s="16"/>
       <c r="D16" s="2" t="s">
-        <v>35</v>
+        <v>153</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>39</v>
+        <v>84</v>
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
       <c r="H16" s="20" t="s">
-        <v>43</v>
+        <v>86</v>
       </c>
       <c r="I16" s="20" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J16" s="4" t="s">
         <v>74</v>
@@ -1760,16 +1774,14 @@
       <c r="K16" s="20"/>
       <c r="L16" s="20"/>
       <c r="M16" s="4" t="s">
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="N16" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="O16" s="4" t="s">
-        <v>82</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="O16" s="4"/>
       <c r="P16" s="4" t="s">
-        <v>53</v>
+        <v>154</v>
       </c>
       <c r="Q16" s="4"/>
       <c r="R16" s="2"/>
@@ -1777,17 +1789,17 @@
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C17" s="16"/>
       <c r="D17" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
@@ -1795,7 +1807,7 @@
         <v>43</v>
       </c>
       <c r="I17" s="20" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J17" s="4" t="s">
         <v>74</v>
@@ -1803,16 +1815,16 @@
       <c r="K17" s="20"/>
       <c r="L17" s="20"/>
       <c r="M17" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N17" s="4" t="s">
-        <v>54</v>
+        <v>81</v>
       </c>
       <c r="O17" s="4" t="s">
         <v>82</v>
       </c>
       <c r="P17" s="4" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="Q17" s="4"/>
       <c r="R17" s="2"/>
@@ -1820,17 +1832,17 @@
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C18" s="16"/>
       <c r="D18" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
@@ -1838,7 +1850,7 @@
         <v>43</v>
       </c>
       <c r="I18" s="20" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J18" s="4" t="s">
         <v>74</v>
@@ -1846,10 +1858,10 @@
       <c r="K18" s="20"/>
       <c r="L18" s="20"/>
       <c r="M18" s="4" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="N18" s="4" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="O18" s="4" t="s">
         <v>82</v>
@@ -1863,17 +1875,17 @@
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C19" s="16"/>
       <c r="D19" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
@@ -1881,7 +1893,7 @@
         <v>43</v>
       </c>
       <c r="I19" s="20" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J19" s="4" t="s">
         <v>74</v>
@@ -1892,7 +1904,7 @@
         <v>44</v>
       </c>
       <c r="N19" s="4" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="O19" s="4" t="s">
         <v>82</v>
@@ -1905,22 +1917,26 @@
       <c r="S19" s="2"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A20" s="1"/>
-      <c r="B20" s="20" t="s">
-        <v>96</v>
+      <c r="A20" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="C20" s="16"/>
-      <c r="D20" s="20" t="s">
-        <v>95</v>
-      </c>
-      <c r="E20" s="3"/>
+      <c r="D20" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
       <c r="H20" s="20" t="s">
-        <v>131</v>
+        <v>43</v>
       </c>
       <c r="I20" s="20" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="J20" s="4" t="s">
         <v>74</v>
@@ -1928,42 +1944,38 @@
       <c r="K20" s="20"/>
       <c r="L20" s="20"/>
       <c r="M20" s="4" t="s">
-        <v>98</v>
+        <v>44</v>
       </c>
       <c r="N20" s="4" t="s">
-        <v>99</v>
+        <v>55</v>
       </c>
       <c r="O20" s="4" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="P20" s="4" t="s">
-        <v>102</v>
+        <v>45</v>
       </c>
       <c r="Q20" s="4"/>
-      <c r="R20" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="S20" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="R20" s="2"/>
+      <c r="S20" s="2"/>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A21" s="1"/>
       <c r="B21" s="20" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="C21" s="16"/>
       <c r="D21" s="20" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
       <c r="H21" s="20" t="s">
-        <v>34</v>
+        <v>138</v>
       </c>
       <c r="I21" s="20" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="J21" s="4" t="s">
         <v>74</v>
@@ -1971,20 +1983,20 @@
       <c r="K21" s="20"/>
       <c r="L21" s="20"/>
       <c r="M21" s="4" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="N21" s="4" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="O21" s="4" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="P21" s="4" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="Q21" s="4"/>
       <c r="R21" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="S21" s="2" t="s">
         <v>31</v>
@@ -1993,20 +2005,20 @@
     <row r="22" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A22" s="1"/>
       <c r="B22" s="20" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="C22" s="16"/>
       <c r="D22" s="20" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
       <c r="H22" s="20" t="s">
-        <v>140</v>
+        <v>34</v>
       </c>
       <c r="I22" s="20" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="J22" s="4" t="s">
         <v>74</v>
@@ -2014,20 +2026,20 @@
       <c r="K22" s="20"/>
       <c r="L22" s="20"/>
       <c r="M22" s="4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="N22" s="4" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="O22" s="4" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="P22" s="4" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="Q22" s="4"/>
       <c r="R22" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="S22" s="2" t="s">
         <v>31</v>
@@ -2036,20 +2048,20 @@
     <row r="23" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A23" s="1"/>
       <c r="B23" s="20" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C23" s="16"/>
       <c r="D23" s="20" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
       <c r="H23" s="20" t="s">
-        <v>34</v>
+        <v>134</v>
       </c>
       <c r="I23" s="20" t="s">
-        <v>121</v>
+        <v>135</v>
       </c>
       <c r="J23" s="4" t="s">
         <v>74</v>
@@ -2057,42 +2069,42 @@
       <c r="K23" s="20"/>
       <c r="L23" s="20"/>
       <c r="M23" s="4" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="N23" s="4" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="O23" s="4" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="P23" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="Q23" s="4"/>
       <c r="R23" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="S23" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="1"/>
       <c r="B24" s="20" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="C24" s="16"/>
       <c r="D24" s="20" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
       <c r="H24" s="20" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="I24" s="20" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
       <c r="J24" s="4" t="s">
         <v>74</v>
@@ -2100,20 +2112,20 @@
       <c r="K24" s="20"/>
       <c r="L24" s="20"/>
       <c r="M24" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="N24" s="4" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="O24" s="4" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="P24" s="4" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="Q24" s="4"/>
       <c r="R24" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="S24" s="2" t="s">
         <v>31</v>
@@ -2122,20 +2134,20 @@
     <row r="25" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="1"/>
       <c r="B25" s="20" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="C25" s="16"/>
       <c r="D25" s="20" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
       <c r="H25" s="20" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="I25" s="20" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="J25" s="4" t="s">
         <v>74</v>
@@ -2143,20 +2155,20 @@
       <c r="K25" s="20"/>
       <c r="L25" s="20"/>
       <c r="M25" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="N25" s="4" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="O25" s="4" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="P25" s="4" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="Q25" s="4"/>
       <c r="R25" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="S25" s="2" t="s">
         <v>31</v>
@@ -2165,20 +2177,20 @@
     <row r="26" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="1"/>
       <c r="B26" s="20" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="C26" s="16"/>
       <c r="D26" s="20" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
       <c r="H26" s="20" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="I26" s="20" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="J26" s="4" t="s">
         <v>74</v>
@@ -2186,42 +2198,42 @@
       <c r="K26" s="20"/>
       <c r="L26" s="20"/>
       <c r="M26" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="N26" s="4" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="O26" s="4" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="P26" s="4" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="Q26" s="4"/>
       <c r="R26" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="S26" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="27" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A27" s="1"/>
       <c r="B27" s="20" t="s">
-        <v>144</v>
+        <v>94</v>
       </c>
       <c r="C27" s="16"/>
       <c r="D27" s="20" t="s">
-        <v>145</v>
+        <v>93</v>
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
       <c r="H27" s="20" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="I27" s="20" t="s">
-        <v>123</v>
+        <v>95</v>
       </c>
       <c r="J27" s="4" t="s">
         <v>74</v>
@@ -2229,42 +2241,42 @@
       <c r="K27" s="20"/>
       <c r="L27" s="20"/>
       <c r="M27" s="4" t="s">
-        <v>124</v>
+        <v>96</v>
       </c>
       <c r="N27" s="4" t="s">
-        <v>146</v>
+        <v>97</v>
       </c>
       <c r="O27" s="4" t="s">
-        <v>147</v>
+        <v>99</v>
       </c>
       <c r="P27" s="4" t="s">
-        <v>148</v>
+        <v>100</v>
       </c>
       <c r="Q27" s="4"/>
       <c r="R27" s="2" t="s">
-        <v>109</v>
+        <v>32</v>
       </c>
       <c r="S27" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="28" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="1"/>
       <c r="B28" s="20" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C28" s="16"/>
       <c r="D28" s="20" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E28" s="3"/>
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
       <c r="H28" s="20" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="I28" s="20" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="J28" s="4" t="s">
         <v>74</v>
@@ -2272,20 +2284,20 @@
       <c r="K28" s="20"/>
       <c r="L28" s="20"/>
       <c r="M28" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="N28" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="O28" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="P28" s="4" t="s">
         <v>151</v>
-      </c>
-      <c r="O28" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="P28" s="4" t="s">
-        <v>153</v>
       </c>
       <c r="Q28" s="4"/>
       <c r="R28" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="S28" s="2" t="s">
         <v>31</v>

--- a/Client/Assets/Mods/X/Common/Config/Objects.xlsx
+++ b/Client/Assets/Mods/X/Common/Config/Objects.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1767" uniqueCount="819">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1810" uniqueCount="841">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3289,6 +3289,94 @@
   <si>
     <t>Icons/stand_wooden_1.png</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rockcube1</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>rockcube1</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cube</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rock</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rock_cube_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rock_cube_1Collider</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Icons/rock_cube_1.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rockcube2</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>rockcube2</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>X/Common/Objects/Rock/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rock_cube_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rock_cube_2Collider</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Icons/rock_cube_2.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rockcube3</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>rockcube3</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>rock_cube_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rock_cube_3Collider</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Icons/rock_cube_3.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Icons/rock_cube_4.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rock_cube_4Collider</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rock_cube_4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rockcube4</t>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3799,10 +3887,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T165"/>
+  <dimension ref="A1:T169"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33:XFD33"/>
+    <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
+      <selection activeCell="B168" sqref="B168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.15"/>
@@ -4209,9 +4297,7 @@
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A12" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="A12" s="1"/>
       <c r="B12" s="20" t="s">
         <v>65</v>
       </c>
@@ -10807,8 +10893,180 @@
         <v>31</v>
       </c>
     </row>
-    <row r="165" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A165" s="8" t="s">
+    <row r="165" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A165" s="1"/>
+      <c r="B165" s="20" t="s">
+        <v>819</v>
+      </c>
+      <c r="C165" s="16"/>
+      <c r="D165" s="20" t="s">
+        <v>820</v>
+      </c>
+      <c r="E165" s="3"/>
+      <c r="F165" s="4"/>
+      <c r="G165" s="4"/>
+      <c r="H165" s="20" t="s">
+        <v>821</v>
+      </c>
+      <c r="I165" s="20" t="s">
+        <v>822</v>
+      </c>
+      <c r="J165" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="K165" s="20"/>
+      <c r="L165" s="20"/>
+      <c r="M165" s="4" t="s">
+        <v>828</v>
+      </c>
+      <c r="N165" s="4" t="s">
+        <v>823</v>
+      </c>
+      <c r="O165" s="4" t="s">
+        <v>824</v>
+      </c>
+      <c r="P165" s="4" t="s">
+        <v>825</v>
+      </c>
+      <c r="Q165" s="4"/>
+      <c r="R165" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="S165" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="166" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A166" s="1"/>
+      <c r="B166" s="20" t="s">
+        <v>826</v>
+      </c>
+      <c r="C166" s="16"/>
+      <c r="D166" s="20" t="s">
+        <v>827</v>
+      </c>
+      <c r="E166" s="3"/>
+      <c r="F166" s="4"/>
+      <c r="G166" s="4"/>
+      <c r="H166" s="20" t="s">
+        <v>821</v>
+      </c>
+      <c r="I166" s="20" t="s">
+        <v>822</v>
+      </c>
+      <c r="J166" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="K166" s="20"/>
+      <c r="L166" s="20"/>
+      <c r="M166" s="4" t="s">
+        <v>828</v>
+      </c>
+      <c r="N166" s="4" t="s">
+        <v>829</v>
+      </c>
+      <c r="O166" s="4" t="s">
+        <v>830</v>
+      </c>
+      <c r="P166" s="4" t="s">
+        <v>831</v>
+      </c>
+      <c r="Q166" s="4"/>
+      <c r="R166" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="S166" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="167" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A167" s="1"/>
+      <c r="B167" s="20" t="s">
+        <v>832</v>
+      </c>
+      <c r="C167" s="16"/>
+      <c r="D167" s="20" t="s">
+        <v>833</v>
+      </c>
+      <c r="E167" s="3"/>
+      <c r="F167" s="4"/>
+      <c r="G167" s="4"/>
+      <c r="H167" s="20" t="s">
+        <v>821</v>
+      </c>
+      <c r="I167" s="20" t="s">
+        <v>822</v>
+      </c>
+      <c r="J167" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="K167" s="20"/>
+      <c r="L167" s="20"/>
+      <c r="M167" s="4" t="s">
+        <v>828</v>
+      </c>
+      <c r="N167" s="4" t="s">
+        <v>834</v>
+      </c>
+      <c r="O167" s="4" t="s">
+        <v>835</v>
+      </c>
+      <c r="P167" s="4" t="s">
+        <v>836</v>
+      </c>
+      <c r="Q167" s="4"/>
+      <c r="R167" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="S167" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="168" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A168" s="1"/>
+      <c r="B168" s="20" t="s">
+        <v>840</v>
+      </c>
+      <c r="C168" s="16"/>
+      <c r="D168" s="20" t="s">
+        <v>840</v>
+      </c>
+      <c r="E168" s="3"/>
+      <c r="F168" s="4"/>
+      <c r="G168" s="4"/>
+      <c r="H168" s="20" t="s">
+        <v>821</v>
+      </c>
+      <c r="I168" s="20" t="s">
+        <v>822</v>
+      </c>
+      <c r="J168" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="K168" s="20"/>
+      <c r="L168" s="20"/>
+      <c r="M168" s="4" t="s">
+        <v>828</v>
+      </c>
+      <c r="N168" s="4" t="s">
+        <v>839</v>
+      </c>
+      <c r="O168" s="4" t="s">
+        <v>838</v>
+      </c>
+      <c r="P168" s="4" t="s">
+        <v>837</v>
+      </c>
+      <c r="Q168" s="4"/>
+      <c r="R168" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="S168" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="169" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A169" s="8" t="s">
         <v>11</v>
       </c>
     </row>
